--- a/resource_api/raporlar/dosyalar/ocak_listesi_raporu.xlsx
+++ b/resource_api/raporlar/dosyalar/ocak_listesi_raporu.xlsx
@@ -1,63 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJELER\Doktor-Web\doktor-servis\resource_api\raporlar\dosyalar\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D688BD-7ED6-45E7-B82C-ECB09A8B3072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="18384" windowHeight="6912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1848" yWindow="1848" windowWidth="18384" windowHeight="6912" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ocakSyf" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ocakSyf" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Ocak Adı</t>
-  </si>
-  <si>
-    <t>Mt2</t>
-  </si>
-  <si>
-    <t>Mt</t>
-  </si>
-  <si>
-    <t>Adet</t>
-  </si>
-  <si>
-    <t>Kasa Sayısı</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -356,30 +385,310 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ocak Adı</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mt2</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Mt</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Adet</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Kasa Sayısı</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>KUMEK</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4878.13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KARAHAYIT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2044.99</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EMEK</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3121.8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ÇIVRIL KUMEK</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>55.59</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MEKMER</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1116.05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ÇIMENTO</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>12009.21</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>KULA</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1235.73</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ALASEHIR</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>199.38</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ANTALYA</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DEMİRELLER</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>475.89</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DAZKIRI</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HISARLI</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>734.54</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GENÇLER</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Konya</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>401.86</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/resource_api/raporlar/dosyalar/ocak_listesi_raporu.xlsx
+++ b/resource_api/raporlar/dosyalar/ocak_listesi_raporu.xlsx
@@ -432,7 +432,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4878.13</v>
+        <v>5199.43</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2044.99</v>
+        <v>1357.16</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3121.8</v>
+        <v>3116.12</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1116.05</v>
+        <v>1007.69</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12009.21</v>
+        <v>14548.57</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>321</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>199.38</v>
+        <v>867.78</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>401.86</v>
+        <v>312.56</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
